--- a/biology/Médecine/SOX9/SOX9.xlsx
+++ b/biology/Médecine/SOX9/SOX9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SOX9 est un facteur de transcription. Son gène est SOX9 porté sur le chromosome 17 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec le SOX6 et le SOX5, il favorise la différenciation des chondrocytes et la formation des cartilages[5].
-Il intervient dans l'embryogenèse cardiaque[6], en particulier au niveau des valves[7]. Chez l'adulte, il protégerait contre la calcification de ces dernières[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec le SOX6 et le SOX5, il favorise la différenciation des chondrocytes et la formation des cartilages.
+Il intervient dans l'embryogenèse cardiaque, en particulier au niveau des valves. Chez l'adulte, il protégerait contre la calcification de ces dernières.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène entraîne une dysplasie testiculaire chez les patients de caryotype XX, avec pour conséquence, une intersexuation[9]. Il peut être également responsable de la dysplasie campomélique[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène entraîne une dysplasie testiculaire chez les patients de caryotype XX, avec pour conséquence, une intersexuation. Il peut être également responsable de la dysplasie campomélique.
 </t>
         </is>
       </c>
